--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed1/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.804200000000002</v>
+        <v>8.904399999999995</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.28619999999999</v>
+        <v>-12.08619999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>6.434999999999999</v>
+        <v>5.88</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,7 +530,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5467</v>
+        <v>5.660399999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -544,10 +544,10 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.056699999999999</v>
+        <v>6.554799999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.8962</v>
+        <v>-12.7546</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2645</v>
+        <v>-10.3449</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6752</v>
+        <v>-10.61269999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.812899999999999</v>
+        <v>4.8447</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.37699999999998</v>
+        <v>-14.59939999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.62229999999999</v>
+        <v>-12.6535</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.38820000000001</v>
+        <v>-11.3091</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -712,10 +712,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.733799999999992</v>
+        <v>9.575399999999989</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.47959999999999</v>
+        <v>-12.5836</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -726,7 +726,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.169299999999987</v>
+        <v>9.31829999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.68790000000001</v>
+        <v>-11.8334</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.999</v>
+        <v>5.988599999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.705600000000007</v>
+        <v>5.533700000000005</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -852,7 +852,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.5144</v>
+        <v>5.461899999999998</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2056</v>
+        <v>-13.0434</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.616299999999995</v>
+        <v>7.011499999999995</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.727</v>
+        <v>-11.65630000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,10 +992,10 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.979299999999999</v>
+        <v>9.316899999999992</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.67750000000001</v>
+        <v>-12.53740000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.50550000000001</v>
+        <v>-12.56050000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.00090000000001</v>
+        <v>-11.7169</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.71329999999999</v>
+        <v>-12.87079999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.821500000000002</v>
+        <v>5.685700000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.10829999999999</v>
+        <v>-12.01329999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.94479999999999</v>
+        <v>-12.99539999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.340399999999999</v>
+        <v>5.551399999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.237999999999994</v>
+        <v>5.610499999999996</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.2003</v>
+        <v>-12.4303</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.205399999999996</v>
+        <v>5.023399999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.5573</v>
+        <v>4.641800000000004</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,10 +1300,10 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>6.655800000000003</v>
+        <v>6.084699999999998</v>
       </c>
       <c r="C62" t="n">
-        <v>-12.4165</v>
+        <v>-12.55600000000001</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.3189</v>
+        <v>-10.22259999999999</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.3438</v>
+        <v>-10.56769999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.358500000000001</v>
+        <v>5.932799999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.7781</v>
+        <v>8.566999999999995</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.957599999999998</v>
+        <v>8.868999999999993</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.1301</v>
+        <v>-12.301</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.823800000000004</v>
+        <v>9.133000000000006</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.22459999999999</v>
+        <v>-14.06249999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1611,7 +1611,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.9065</v>
+        <v>-13.92309999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.7006</v>
+        <v>-13.2407</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.927699999999998</v>
+        <v>4.706099999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.6941</v>
+        <v>-10.8346</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.630699999999999</v>
+        <v>5.291500000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
